--- a/data/trans_bre/P23_10_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_10_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-50,37%</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-46,54%</t>
+          <t>77,98%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-14,44%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>202,02%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 4,43</t>
+          <t>-12,65; 18,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 9,54</t>
+          <t>-6,48; 19,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 2,93</t>
+          <t>-10,74; 6,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-92,68; 105,62</t>
+          <t>-2,63; 18,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 310,25</t>
+          <t>-68,96; 463,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-86,45; 108,26</t>
+          <t>-57,86; 734,39</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-44,84%</t>
+          <t>-8,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,81%</t>
+          <t>-54,64%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-34,74%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>73,82%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 6,77</t>
+          <t>-7,41; 4,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 1,26</t>
+          <t>-20,73; 1,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 2,29</t>
+          <t>-9,04; 2,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,89; 130,91</t>
+          <t>-2,06; 8,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,28; 43,02</t>
+          <t>-63,7; 88,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,32; 69,8</t>
+          <t>-92,59; 32,55</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-78,43; 70,64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-49,01; 459,41</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-64,0%</t>
+          <t>-3,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,62%</t>
+          <t>-78,58%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-26,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-20,43%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 4,91</t>
+          <t>-5,59; 5,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -0,38</t>
+          <t>-11,48; -1,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 4,2</t>
+          <t>-7,61; 3,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-47,34; 145,94</t>
+          <t>-6,0; 3,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-90,79; 4,54</t>
+          <t>-59,96; 195,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,47; 135,83</t>
+          <t>-100,0; -17,44</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-74,61; 83,41</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-78,17; 164,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,37%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-38,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-22,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 0,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,8; 60,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,75; 13,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,26; 21,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-4,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-1,61%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-47,2%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-29,5%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>50,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 3,85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-11,02; -0,33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 1,27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 5,62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-41,29; 71,92</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-78,22; 0,27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-63,89; 27,73</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-29,81; 211,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_10_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_10_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,191 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,6</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,25</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,79</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,93</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>23,34%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>77,98%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-14,44%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>202,02%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.2182387396929747</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.810235052994738</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.109367338768992</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.698046555416072</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.0156865836064055</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.9764420600621974</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.2079457619625831</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>2.850560722463565</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,65; 18,27</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,48; 19,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,74; 6,58</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; 18,33</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-68,96; 463,16</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-57,86; 734,39</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-20.38654464892775</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.488049541579835</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.60220655151719</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.73712673642704</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.8279914985961266</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5137606921575658</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.09858128913559</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>21.64892890124245</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.668175613786651</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>22.54546051394065</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.007812222958249</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>7.569998013138886</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,17</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,56</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-8,69%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-54,64%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-34,74%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>73,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,41; 4,29</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-20,73; 1,25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,04; 2,6</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 8,9</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-63,7; 88,76</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-92,59; 32,55</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-78,43; 70,64</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-49,01; 459,41</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.7666744326842265</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.298273372749365</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.888958938688695</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.868441635434153</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1012256347333596</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.4862553100593007</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2752623352313752</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.7587077165265443</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,78</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,86%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-78,58%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-26,5%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-20,43%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.176528874445141</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.00803630031511</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.946157388119936</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.103679156947736</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.574111182600306</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9000748672641775</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.7687957358496732</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4835245312822862</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,59; 5,48</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,48; -1,35</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,61; 3,13</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,0; 3,31</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-59,96; 195,74</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -17,44</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-74,61; 83,41</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-78,17; 164,86</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.951878211257369</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.919087043248762</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.380869112975008</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.113712223179332</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.343495296122751</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.5116610478852058</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.9305978473499606</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.767305906745221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +819,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.5257343710863511</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.748632300370531</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.543640670052559</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.8887714780257329</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.09006615683451283</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.7942659538866969</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.2385836671482204</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1865009775939252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.609491672426432</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.37554359056727</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.414866714947675</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.028336371742863</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.5659728082128865</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7382336061792069</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7683688440536839</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.207742146342834</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-1.397427297769921</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.159924471056334</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.483093658833579</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.271672913575359</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.2064788210542946</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.8702324448592252</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.793214357170231</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-4,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,03</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,61%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-47,2%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-29,5%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>50,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 3,85</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,02; -0,33</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,07; 1,27</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 5,62</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-41,29; 71,92</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-78,22; 0,27</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-63,89; 27,73</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-29,81; 211,41</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.523983249694332</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.294726403731906</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.67317230151395</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.390124320406561</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.06794954272287533</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.4046996661333849</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2568067028803762</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6077240937274427</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.861665061986592</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.368421634998205</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.521039424580713</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.137840286934149</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3832746587756198</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.7469612442884159</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.6078467312304312</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.275800283784728</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.032223931844403</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.4220001238182157</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.478349590433746</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.302409747212319</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.9003801508808829</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1372529895076143</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3601476080557265</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.352179839164388</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
